--- a/Expedia Templates/BMC/BMC1/EXPORT Promotion Export.xlsx
+++ b/Expedia Templates/BMC/BMC1/EXPORT Promotion Export.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\github-repositories\core_ota\Expedia Templates\BMC\BMC1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/Expedia Templates/BMC/BMC1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7F8599-68CD-49B0-9E0C-9F72A717E8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE74C64-37EA-F74A-8653-DFC8A0DCA2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="6420" windowWidth="25755" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="6420" windowWidth="25760" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Property Name</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -45,31 +45,13 @@
     <t>Rule ID</t>
   </si>
   <si>
-    <t>Exclude Inactive Rate Plan</t>
-  </si>
-  <si>
     <t>Hotel ID</t>
-  </si>
-  <si>
-    <t>Exclude ODYSSEY Project</t>
   </si>
   <si>
     <t>Hotel Rate Code</t>
   </si>
   <si>
     <t>Internal Name</t>
-  </si>
-  <si>
-    <t>Exclude Rate Plans</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Exclude Inactive Rate Rule</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -396,27 +378,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -425,39 +404,15 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>123</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Expedia Templates/BMC/BMC1/EXPORT Promotion Export.xlsx
+++ b/Expedia Templates/BMC/BMC1/EXPORT Promotion Export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/Expedia Templates/BMC/BMC1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE74C64-37EA-F74A-8653-DFC8A0DCA2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BBAC9A-7506-774E-BCBD-F873CE38968F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="6420" windowWidth="25760" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="4080" windowWidth="25760" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -378,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -410,11 +410,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>123</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Expedia Templates/BMC/BMC1/EXPORT Promotion Export.xlsx
+++ b/Expedia Templates/BMC/BMC1/EXPORT Promotion Export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/Expedia Templates/BMC/BMC1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BBAC9A-7506-774E-BCBD-F873CE38968F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB988D7F-8A86-874D-A71B-BFDDB4B0588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="4080" windowWidth="25760" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20880" yWindow="8060" windowWidth="25760" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -378,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -410,6 +410,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
